--- a/BOM_1_20.xlsx
+++ b/BOM_1_20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fearg\OneDrive\Desktop\WINTER26\CAPSTONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bae3294a8e9ce649/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3023E2-A704-4A03-9882-F1119730FDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{223AF861-5B72-47B1-BD01-60D319FB126C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials" sheetId="1" r:id="rId1"/>
@@ -179,9 +179,6 @@
     <t>LINK</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/116786579409?_skw=SC-E05PG-24VDC&amp;itmmeta=01KFFGK3QKDHHW4RGZWMA26Z9T&amp;hash=item1b3105c7d1:g:38gAAeSwpkFozK6S&amp;itmprp=enc%3AAQALAAAA8O7PUuNWmJ%2B%2BUShgI9tQz%2Fpy5NzwOiRTUXhGl9eeq4ZGiTgjrq8tj2acwJJSop86CT%2FwyTOEpIcXsrmRpAteSbaUh5jDtCM1NO6bmXsssttyd--kGOxOVgH4dRLFRM30KuJHJmRuouk%2FqRuO6S2t009md12R7Al3m%2BlLh6%2Fiy7NT11GuwqQtNTvgKHO%2FSxVU2cjEaMTPF3Xl%2BMpb%2BeND5I3yWKmr8l9Hgk52lx4tdqITWVJcpx1KxaM7w%2B88fF7L0s1FbwTB%2FHJ7Lv3vZTXplQL%2FzLwiMBhBTjUYJMfVV2Fbjrmk37q%2FVHOHQDz%2BtAbXLg%3D%3D%7Ctkp%3ABk9SR4q8zPD7Zg</t>
-  </si>
-  <si>
     <t>https://portland.craigslist.org/mlt/mat/d/portland-motor-motors-phase/7892976238.html</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>NBE7</t>
   </si>
   <si>
-    <t>FUJI SC-E05P/G</t>
-  </si>
-  <si>
     <t>‎HY02D211B-T</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>https://www.ebay.com/itm/306662618920?_skw=EA1-T4CL&amp;itmmeta=01KFFHPKRB7RPJFFXXP1CYXW9A&amp;hash=item4766843728:g:ePEAAeSwiWBpQq9j&amp;itmprp=enc%3AAQALAAAA4O7PUuNWmJ%2B%2BUShgI9tQz%2FoCT2CtzBvza%2FkUtA2CNxfqvBUdLNDV1yHC0lD%2BoZiGhlFqaXapksgegdfa60EyxZ6OrRHjWvTyzN3e2i2W4jSG4zQcrrBJE0xvxK%2FVd%2BD0BLtx%2FuQiIUU16X6MAk9uHrvNijuJdiCGa%2BzckhXzuA%2BtXV%2BpJpr4Z5lc4RCXh6ti9XehnNrvWfoC2xjFrUeyQOKuKIq41inz%2BGiNdsx1Usxc3zEQOprvKYhF6QAL7RywkKbNyaJVSwk%2BlJEdlOxw%2FzvSp0VK6KvGufzHRofXkTXB%7Ctkp%3ABk9SR6a82vH7Zg</t>
+  </si>
+  <si>
+    <t>MITSUBISHI SD-N35</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/186247548349</t>
   </si>
 </sst>
 </file>
@@ -605,14 +605,14 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1011,7 +1011,7 @@
   <dimension ref="B1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1049,10 +1049,10 @@
         <v>17</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" ht="30" customHeight="1">
@@ -1064,10 +1064,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="2:10" ht="30" customHeight="1">
@@ -1079,10 +1079,10 @@
         <v>19</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="2:10" ht="30" customHeight="1">
@@ -1097,10 +1097,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="2:10" ht="30" customHeight="1">
@@ -1115,10 +1115,10 @@
         <v>21</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="12" customHeight="1">
@@ -1160,7 +1160,7 @@
     </row>
     <row r="9" spans="2:10" ht="75" customHeight="1">
       <c r="B9" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>22</v>
@@ -1172,8 +1172,8 @@
         <v>1</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="38" t="s">
-        <v>43</v>
+      <c r="G9" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="H9" s="9">
         <v>100</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="10" spans="2:10" ht="75" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>23</v>
@@ -1197,8 +1197,8 @@
         <v>1</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="38" t="s">
-        <v>44</v>
+      <c r="G10" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="H10" s="9">
         <v>200</v>
@@ -1210,20 +1210,20 @@
     </row>
     <row r="11" spans="2:10" ht="75" customHeight="1">
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
+      <c r="G11" s="36" t="s">
+        <v>57</v>
       </c>
       <c r="H11" s="9">
         <v>35</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="12" spans="2:10" ht="75" customHeight="1">
       <c r="B12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>25</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="13" spans="2:10" ht="75" customHeight="1">
       <c r="B13" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>28</v>
@@ -1293,8 +1293,8 @@
         <v>1</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="38" t="s">
-        <v>46</v>
+      <c r="G14" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="H14" s="9">
         <v>340</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="15" spans="2:10" ht="75" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>30</v>
@@ -1341,8 +1341,8 @@
         <v>1</v>
       </c>
       <c r="F16" s="14"/>
-      <c r="G16" s="38" t="s">
-        <v>57</v>
+      <c r="G16" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="H16" s="9">
         <v>125</v>
@@ -1354,20 +1354,20 @@
     </row>
     <row r="17" spans="2:9" ht="75" customHeight="1">
       <c r="B17" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="38" t="s">
-        <v>50</v>
+      <c r="G17" s="36" t="s">
+        <v>49</v>
       </c>
       <c r="H17" s="9">
         <v>16</v>
@@ -1385,14 +1385,14 @@
         <v>40</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="14"/>
-      <c r="G18" s="38" t="s">
-        <v>47</v>
+      <c r="G18" s="36" t="s">
+        <v>46</v>
       </c>
       <c r="H18" s="9">
         <v>15</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="19" spans="2:9" ht="75" customHeight="1">
       <c r="B19" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="E19" s="14">
         <v>2</v>
@@ -1483,26 +1483,26 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1517,9 +1517,10 @@
     <hyperlink ref="G18" r:id="rId5" xr:uid="{E87235D7-95FF-41DE-8AD9-B861C7805AA2}"/>
     <hyperlink ref="G17" r:id="rId6" xr:uid="{D4FEB9B5-087D-40F2-BAF9-8B5ED2539F84}"/>
     <hyperlink ref="G16" r:id="rId7" display="https://www.ebay.com/itm/306662618920?_skw=EA1-T4CL&amp;itmmeta=01KFFHPKRB7RPJFFXXP1CYXW9A&amp;hash=item4766843728:g:ePEAAeSwiWBpQq9j&amp;itmprp=enc%3AAQALAAAA4O7PUuNWmJ%2B%2BUShgI9tQz%2FoCT2CtzBvza%2FkUtA2CNxfqvBUdLNDV1yHC0lD%2BoZiGhlFqaXapksgegdfa60EyxZ6OrRHjWvTyzN3e2i2W4jSG4zQcrrBJE0xvxK%2FVd%2BD0BLtx%2FuQiIUU16X6MAk9uHrvNijuJdiCGa%2BzckhXzuA%2BtXV%2BpJpr4Z5lc4RCXh6ti9XehnNrvWfoC2xjFrUeyQOKuKIq41inz%2BGiNdsx1Usxc3zEQOprvKYhF6QAL7RywkKbNyaJVSwk%2BlJEdlOxw%2FzvSp0VK6KvGufzHRofXkTXB%7Ctkp%3ABk9SR6a82vH7Zg" xr:uid="{B0E84B26-B6C3-41BB-B6C8-D3CAE1C92089}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{DD372068-5AA3-4C2C-BB95-1CC18E2B18D6}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup scale="60" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId8"/>
+  <pageSetup scale="60" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId9"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1539,7 +1540,7 @@
       <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="88.375" style="2" customWidth="1"/>
